--- a/templates/dataplant/MIAPPE/MIAPPE_-_Nutrients/MIAPPE_-_Nutrients_v1.0.1.xlsx
+++ b/templates/dataplant/MIAPPE/MIAPPE_-_Nutrients/MIAPPE_-_Nutrients_v1.0.1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Growth Medium</t>
+  </si>
+  <si>
+    <t>Phenomics</t>
   </si>
   <si>
     <t>Tags Term Accession Number</t>
@@ -730,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -811,7 +814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -824,111 +827,114 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -944,222 +950,222 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" t="s">
-        <v>86</v>
-      </c>
       <c r="V2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
